--- a/out_lazo.xlsx
+++ b/out_lazo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="207">
   <si>
     <t>May</t>
   </si>
@@ -23,7 +23,7 @@
     <t>nan</t>
   </si>
   <si>
-    <t>8.68410596026</t>
+    <t>8.3</t>
   </si>
   <si>
     <t>20.0</t>
@@ -32,7 +32,7 @@
     <t>1.8</t>
   </si>
   <si>
-    <t>75.5298013245</t>
+    <t>79.0</t>
   </si>
   <si>
     <t>100.0</t>
@@ -41,7 +41,7 @@
     <t>19.0</t>
   </si>
   <si>
-    <t>7.34</t>
+    <t>5.0</t>
   </si>
   <si>
     <t>29.0</t>
@@ -50,7 +50,7 @@
     <t>0.1</t>
   </si>
   <si>
-    <t>9.66298701299</t>
+    <t>9.2</t>
   </si>
   <si>
     <t>20.9</t>
@@ -59,13 +59,13 @@
     <t>0.7</t>
   </si>
   <si>
-    <t>75.3137254902</t>
+    <t>80.0</t>
   </si>
   <si>
     <t>15.0</t>
   </si>
   <si>
-    <t>1.71904761905</t>
+    <t>1.0</t>
   </si>
   <si>
     <t>9.0</t>
@@ -74,7 +74,7 @@
     <t>0.3</t>
   </si>
   <si>
-    <t>9.27662337662</t>
+    <t>8.85</t>
   </si>
   <si>
     <t>20.8</t>
@@ -83,16 +83,16 @@
     <t>3.7</t>
   </si>
   <si>
-    <t>78.8311688312</t>
+    <t>84.5</t>
   </si>
   <si>
     <t>27.0</t>
   </si>
   <si>
-    <t>5.7652173913</t>
-  </si>
-  <si>
-    <t>8.84827586207</t>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>8.9</t>
   </si>
   <si>
     <t>16.9</t>
@@ -101,40 +101,28 @@
     <t>2.3</t>
   </si>
   <si>
-    <t>83.5103448276</t>
+    <t>87.0</t>
   </si>
   <si>
     <t>34.0</t>
   </si>
   <si>
-    <t>5.33870967742</t>
-  </si>
-  <si>
     <t>30.0</t>
   </si>
   <si>
-    <t>10.1240816327</t>
+    <t>9.5</t>
   </si>
   <si>
     <t>2.4</t>
   </si>
   <si>
-    <t>74.4979591837</t>
-  </si>
-  <si>
     <t>14.0</t>
   </si>
   <si>
-    <t>4.8</t>
-  </si>
-  <si>
     <t>10.0</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>8.32204081633</t>
+    <t>7.9</t>
   </si>
   <si>
     <t>18.2</t>
@@ -143,19 +131,19 @@
     <t>2.6</t>
   </si>
   <si>
-    <t>80.2653061224</t>
+    <t>83.0</t>
   </si>
   <si>
     <t>39.0</t>
   </si>
   <si>
-    <t>8.83888888889</t>
+    <t>1.35</t>
   </si>
   <si>
     <t>35.0</t>
   </si>
   <si>
-    <t>6.80610328638</t>
+    <t>5.9</t>
   </si>
   <si>
     <t>19.2</t>
@@ -164,19 +152,16 @@
     <t>2.2</t>
   </si>
   <si>
-    <t>85.0141509434</t>
+    <t>90.0</t>
   </si>
   <si>
     <t>23.0</t>
   </si>
   <si>
-    <t>3.19375</t>
-  </si>
-  <si>
     <t>13.0</t>
   </si>
   <si>
-    <t>8.72550607287</t>
+    <t>8.0</t>
   </si>
   <si>
     <t>18.9</t>
@@ -185,28 +170,25 @@
     <t>2.1</t>
   </si>
   <si>
-    <t>83.5708502024</t>
-  </si>
-  <si>
     <t>98.0</t>
   </si>
   <si>
     <t>33.0</t>
   </si>
   <si>
-    <t>4.796</t>
+    <t>0.9</t>
   </si>
   <si>
     <t>28.0</t>
   </si>
   <si>
-    <t>7.82580645161</t>
+    <t>7.4</t>
   </si>
   <si>
     <t>19.9</t>
   </si>
   <si>
-    <t>84.4193548387</t>
+    <t>88.0</t>
   </si>
   <si>
     <t>96.0</t>
@@ -215,46 +197,37 @@
     <t>37.0</t>
   </si>
   <si>
-    <t>5.79545454545</t>
-  </si>
-  <si>
     <t>62.0</t>
   </si>
   <si>
-    <t>9.96612903226</t>
-  </si>
-  <si>
     <t>21.7</t>
   </si>
   <si>
     <t>3.4</t>
   </si>
   <si>
-    <t>75.4032258065</t>
+    <t>81.0</t>
   </si>
   <si>
     <t>97.0</t>
   </si>
   <si>
-    <t>5.77894736842</t>
-  </si>
-  <si>
     <t>25.0</t>
   </si>
   <si>
-    <t>9.98508064516</t>
+    <t>9.3</t>
   </si>
   <si>
     <t>20.7</t>
   </si>
   <si>
-    <t>71.5483870968</t>
+    <t>75.0</t>
   </si>
   <si>
     <t>21.0</t>
   </si>
   <si>
-    <t>8.9625</t>
+    <t>6.0</t>
   </si>
   <si>
     <t>22.0</t>
@@ -263,7 +236,7 @@
     <t>July</t>
   </si>
   <si>
-    <t>17.5629370629</t>
+    <t>17.4</t>
   </si>
   <si>
     <t>27.8</t>
@@ -272,37 +245,25 @@
     <t>12.4</t>
   </si>
   <si>
-    <t>89.5704225352</t>
+    <t>91.0</t>
   </si>
   <si>
     <t>38.0</t>
   </si>
   <si>
-    <t>8.05757575758</t>
-  </si>
-  <si>
     <t>82.0</t>
   </si>
   <si>
-    <t>18.8927631579</t>
-  </si>
-  <si>
     <t>29.2</t>
   </si>
   <si>
-    <t>85.1456953642</t>
-  </si>
-  <si>
     <t>36.0</t>
   </si>
   <si>
-    <t>10.6782608696</t>
-  </si>
-  <si>
     <t>130.0</t>
   </si>
   <si>
-    <t>17.2122580645</t>
+    <t>16.8</t>
   </si>
   <si>
     <t>24.0</t>
@@ -311,16 +272,16 @@
     <t>10.4</t>
   </si>
   <si>
-    <t>84.3311688312</t>
+    <t>84.0</t>
   </si>
   <si>
     <t>52.0</t>
   </si>
   <si>
-    <t>4.90625</t>
-  </si>
-  <si>
-    <t>18.3127516779</t>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>18.1</t>
   </si>
   <si>
     <t>24.9</t>
@@ -329,16 +290,16 @@
     <t>12.9</t>
   </si>
   <si>
-    <t>89.7027027027</t>
+    <t>92.0</t>
   </si>
   <si>
     <t>60.0</t>
   </si>
   <si>
-    <t>11.825</t>
-  </si>
-  <si>
-    <t>15.506504065</t>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>15.2</t>
   </si>
   <si>
     <t>22.8</t>
@@ -347,16 +308,13 @@
     <t>11.0</t>
   </si>
   <si>
-    <t>92.1097560976</t>
+    <t>94.0</t>
   </si>
   <si>
     <t>70.0</t>
   </si>
   <si>
-    <t>6.92820512821</t>
-  </si>
-  <si>
-    <t>18.2987854251</t>
+    <t>18.3</t>
   </si>
   <si>
     <t>24.1</t>
@@ -365,40 +323,28 @@
     <t>13.9</t>
   </si>
   <si>
-    <t>93.1538461538</t>
+    <t>95.0</t>
   </si>
   <si>
     <t>72.0</t>
   </si>
   <si>
-    <t>7.91538461538</t>
-  </si>
-  <si>
     <t>40.0</t>
   </si>
   <si>
-    <t>17.4829166667</t>
-  </si>
-  <si>
     <t>24.6</t>
   </si>
   <si>
     <t>10.3</t>
   </si>
   <si>
-    <t>90.8661087866</t>
-  </si>
-  <si>
     <t>46.0</t>
   </si>
   <si>
-    <t>15.275</t>
-  </si>
-  <si>
     <t>48.0</t>
   </si>
   <si>
-    <t>17.4773279352</t>
+    <t>17.0</t>
   </si>
   <si>
     <t>26.6</t>
@@ -407,19 +353,13 @@
     <t>12.1</t>
   </si>
   <si>
-    <t>88.6801619433</t>
-  </si>
-  <si>
     <t>61.0</t>
   </si>
   <si>
-    <t>12.9793103448</t>
-  </si>
-  <si>
     <t>69.0</t>
   </si>
   <si>
-    <t>19.0631372549</t>
+    <t>19.1</t>
   </si>
   <si>
     <t>27.4</t>
@@ -428,16 +368,10 @@
     <t>14.7</t>
   </si>
   <si>
-    <t>90.6156862745</t>
-  </si>
-  <si>
-    <t>16.237037037</t>
-  </si>
-  <si>
     <t>126.0</t>
   </si>
   <si>
-    <t>18.8064516129</t>
+    <t>18.6</t>
   </si>
   <si>
     <t>26.9</t>
@@ -446,16 +380,13 @@
     <t>12.6</t>
   </si>
   <si>
-    <t>87.1975806452</t>
-  </si>
-  <si>
-    <t>16.1846153846</t>
+    <t>89.5</t>
   </si>
   <si>
     <t>122.0</t>
   </si>
   <si>
-    <t>17.0358870968</t>
+    <t>17.15</t>
   </si>
   <si>
     <t>27.6</t>
@@ -464,16 +395,10 @@
     <t>10.5</t>
   </si>
   <si>
-    <t>87.6733870968</t>
-  </si>
-  <si>
-    <t>7.43333333333</t>
-  </si>
-  <si>
     <t>June</t>
   </si>
   <si>
-    <t>13.8777027027</t>
+    <t>13.4</t>
   </si>
   <si>
     <t>26.1</t>
@@ -482,16 +407,13 @@
     <t>8.8</t>
   </si>
   <si>
-    <t>90.3513513514</t>
+    <t>90.5</t>
   </si>
   <si>
     <t>56.0</t>
   </si>
   <si>
-    <t>1.86842105263</t>
-  </si>
-  <si>
-    <t>12.2651006711</t>
+    <t>11.8</t>
   </si>
   <si>
     <t>21.4</t>
@@ -500,40 +422,25 @@
     <t>7.0</t>
   </si>
   <si>
-    <t>88.0067567568</t>
-  </si>
-  <si>
-    <t>7.6</t>
-  </si>
-  <si>
     <t>57.0</t>
   </si>
   <si>
     <t>0.5</t>
   </si>
   <si>
-    <t>14.5195945946</t>
+    <t>14.15</t>
   </si>
   <si>
     <t>31.2</t>
   </si>
   <si>
-    <t>7.4</t>
-  </si>
-  <si>
-    <t>83.0472972973</t>
-  </si>
-  <si>
-    <t>6.08</t>
-  </si>
-  <si>
-    <t>17.0</t>
+    <t>89.0</t>
   </si>
   <si>
     <t>0.4</t>
   </si>
   <si>
-    <t>13.7782894737</t>
+    <t>13.45</t>
   </si>
   <si>
     <t>24.8</t>
@@ -542,16 +449,13 @@
     <t>6.4</t>
   </si>
   <si>
-    <t>78.8552631579</t>
-  </si>
-  <si>
-    <t>21.53</t>
+    <t>2.25</t>
   </si>
   <si>
     <t>85.0</t>
   </si>
   <si>
-    <t>11.9898734177</t>
+    <t>11.3</t>
   </si>
   <si>
     <t>23.2</t>
@@ -560,46 +464,28 @@
     <t>6.6</t>
   </si>
   <si>
-    <t>89.6737288136</t>
-  </si>
-  <si>
-    <t>8.87352941176</t>
-  </si>
-  <si>
-    <t>14.6360169492</t>
+    <t>93.0</t>
   </si>
   <si>
     <t>26.3</t>
   </si>
   <si>
-    <t>5.9</t>
-  </si>
-  <si>
-    <t>88.2179487179</t>
+    <t>92.5</t>
   </si>
   <si>
     <t>31.0</t>
   </si>
   <si>
-    <t>7.125</t>
-  </si>
-  <si>
-    <t>12.8281879195</t>
-  </si>
-  <si>
     <t>22.2</t>
   </si>
   <si>
-    <t>85.75</t>
-  </si>
-  <si>
     <t>63.0</t>
   </si>
   <si>
-    <t>2.58636363636</t>
-  </si>
-  <si>
-    <t>12.3695833333</t>
+    <t>1.45</t>
+  </si>
+  <si>
+    <t>12.3</t>
   </si>
   <si>
     <t>20.2</t>
@@ -608,37 +494,19 @@
     <t>6.1</t>
   </si>
   <si>
-    <t>88.3875</t>
-  </si>
-  <si>
     <t>59.0</t>
   </si>
   <si>
-    <t>1.95555555556</t>
-  </si>
-  <si>
-    <t>13.1845833333</t>
+    <t>13.1</t>
   </si>
   <si>
     <t>6.9</t>
   </si>
   <si>
-    <t>86.4416666667</t>
-  </si>
-  <si>
-    <t>3.69</t>
-  </si>
-  <si>
-    <t>14.1733333333</t>
-  </si>
-  <si>
-    <t>84.9458333333</t>
-  </si>
-  <si>
-    <t>4.58</t>
-  </si>
-  <si>
-    <t>13.0281512605</t>
+    <t>14.1</t>
+  </si>
+  <si>
+    <t>12.7</t>
   </si>
   <si>
     <t>23.3</t>
@@ -647,28 +515,19 @@
     <t>7.8</t>
   </si>
   <si>
-    <t>85.7731092437</t>
-  </si>
-  <si>
-    <t>4.43333333333</t>
-  </si>
-  <si>
     <t>August</t>
   </si>
   <si>
-    <t>21.6124183007</t>
+    <t>21.6</t>
   </si>
   <si>
     <t>28.4</t>
   </si>
   <si>
-    <t>85.6666666667</t>
-  </si>
-  <si>
-    <t>9.11</t>
-  </si>
-  <si>
-    <t>22.3586666667</t>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>22.35</t>
   </si>
   <si>
     <t>29.3</t>
@@ -677,16 +536,10 @@
     <t>16.0</t>
   </si>
   <si>
-    <t>86.2777777778</t>
-  </si>
-  <si>
     <t>49.0</t>
   </si>
   <si>
-    <t>9.6</t>
-  </si>
-  <si>
-    <t>20.5181818182</t>
+    <t>20.6</t>
   </si>
   <si>
     <t>26.7</t>
@@ -695,37 +548,22 @@
     <t>12.5</t>
   </si>
   <si>
-    <t>85.6381578947</t>
-  </si>
-  <si>
-    <t>6.56428571429</t>
-  </si>
-  <si>
     <t>54.0</t>
   </si>
   <si>
     <t>0.2</t>
   </si>
   <si>
-    <t>20.0186666667</t>
+    <t>19.85</t>
   </si>
   <si>
     <t>11.9</t>
   </si>
   <si>
-    <t>83.3133333333</t>
-  </si>
-  <si>
     <t>50.0</t>
   </si>
   <si>
-    <t>18.43</t>
-  </si>
-  <si>
-    <t>84.0</t>
-  </si>
-  <si>
-    <t>18.6053497942</t>
+    <t>18.7</t>
   </si>
   <si>
     <t>25.9</t>
@@ -734,49 +572,28 @@
     <t>9.9</t>
   </si>
   <si>
-    <t>85.7572016461</t>
-  </si>
-  <si>
-    <t>20.1444444444</t>
-  </si>
-  <si>
     <t>134.0</t>
   </si>
   <si>
-    <t>21.9697580645</t>
+    <t>22.3</t>
   </si>
   <si>
     <t>16.5</t>
   </si>
   <si>
-    <t>87.5020242915</t>
-  </si>
-  <si>
     <t>58.0</t>
   </si>
   <si>
-    <t>6.86923076923</t>
-  </si>
-  <si>
     <t>18.0</t>
   </si>
   <si>
-    <t>20.6705394191</t>
-  </si>
-  <si>
     <t>29.9</t>
   </si>
   <si>
-    <t>12.3</t>
-  </si>
-  <si>
-    <t>87.5991561181</t>
-  </si>
-  <si>
-    <t>5.525</t>
-  </si>
-  <si>
-    <t>19.9700404858</t>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>20.1</t>
   </si>
   <si>
     <t>27.7</t>
@@ -785,13 +602,7 @@
     <t>14.2</t>
   </si>
   <si>
-    <t>86.7854251012</t>
-  </si>
-  <si>
-    <t>9.90416666667</t>
-  </si>
-  <si>
-    <t>20.6592741935</t>
+    <t>20.75</t>
   </si>
   <si>
     <t>27.5</t>
@@ -800,19 +611,13 @@
     <t>12.0</t>
   </si>
   <si>
-    <t>87.0161290323</t>
-  </si>
-  <si>
-    <t>5.63333333333</t>
-  </si>
-  <si>
     <t>26.0</t>
   </si>
   <si>
     <t>0.6</t>
   </si>
   <si>
-    <t>19.3350806452</t>
+    <t>19.65</t>
   </si>
   <si>
     <t>28.3</t>
@@ -821,25 +626,13 @@
     <t>11.5</t>
   </si>
   <si>
-    <t>80.4274193548</t>
-  </si>
-  <si>
     <t>45.0</t>
   </si>
   <si>
-    <t>10.7833333333</t>
-  </si>
-  <si>
-    <t>20.1417004049</t>
-  </si>
-  <si>
-    <t>84.7398373984</t>
+    <t>6.5</t>
   </si>
   <si>
     <t>47.0</t>
-  </si>
-  <si>
-    <t>7.06666666667</t>
   </si>
   <si>
     <t>42.0</t>
@@ -947,12 +740,10 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="7.36224489795918"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.984693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="5.10204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.984693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.09183673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="5.10204081632653"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.09183673469388"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="5.10204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.984693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="5.10204081632653"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.09183673469388"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="4.53571428571429"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="11.5204081632653"/>
@@ -1114,10 +905,10 @@
         <v>29</v>
       </c>
       <c r="H6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>31</v>
       </c>
       <c r="J6" s="0" t="s">
         <v>10</v>
@@ -1128,31 +919,31 @@
         <v>2009</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="H7" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="J7" s="0" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1160,28 +951,28 @@
         <v>2010</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="H8" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="I8" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>45</v>
       </c>
       <c r="J8" s="0" t="s">
         <v>10</v>
@@ -1192,28 +983,28 @@
         <v>2011</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="H9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>52</v>
       </c>
       <c r="J9" s="0" t="s">
         <v>10</v>
@@ -1224,28 +1015,28 @@
         <v>2012</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="I10" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>60</v>
       </c>
       <c r="J10" s="0" t="s">
         <v>10</v>
@@ -1256,28 +1047,28 @@
         <v>2013</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>10</v>
@@ -1288,28 +1079,28 @@
         <v>2014</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>10</v>
@@ -1320,28 +1111,28 @@
         <v>2015</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="J13" s="0" t="s">
         <v>13</v>
@@ -1349,7 +1140,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1389,28 +1180,28 @@
         <v>2005</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="J16" s="0" t="s">
         <v>10</v>
@@ -1421,28 +1212,28 @@
         <v>2006</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="J17" s="0" t="s">
         <v>10</v>
@@ -1453,28 +1244,28 @@
         <v>2007</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J18" s="0" t="s">
         <v>18</v>
@@ -1485,28 +1276,28 @@
         <v>2008</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>13</v>
@@ -1517,28 +1308,28 @@
         <v>2009</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J20" s="0" t="s">
         <v>18</v>
@@ -1549,28 +1340,28 @@
         <v>2010</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="J21" s="0" t="s">
         <v>18</v>
@@ -1581,28 +1372,28 @@
         <v>2011</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="J22" s="0" t="s">
         <v>18</v>
@@ -1613,28 +1404,28 @@
         <v>2012</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="J23" s="0" t="s">
         <v>10</v>
@@ -1645,28 +1436,28 @@
         <v>2013</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="J24" s="0" t="s">
         <v>10</v>
@@ -1677,28 +1468,28 @@
         <v>2014</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>144</v>
+        <v>24</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>18</v>
@@ -1709,28 +1500,28 @@
         <v>2015</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>150</v>
+        <v>87</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J26" s="0" t="s">
         <v>10</v>
@@ -1738,7 +1529,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1778,25 +1569,25 @@
         <v>2005</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>157</v>
+        <v>16</v>
       </c>
       <c r="I29" s="0" t="s">
         <v>17</v>
@@ -1810,31 +1601,31 @@
         <v>2006</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>162</v>
+        <v>87</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1842,31 +1633,31 @@
         <v>2007</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>167</v>
+        <v>55</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>169</v>
+        <v>93</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1874,28 +1665,28 @@
         <v>2008</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>175</v>
+        <v>63</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>10</v>
@@ -1906,31 +1697,31 @@
         <v>2009</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>182</v>
+        <v>8</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1938,31 +1729,31 @@
         <v>2010</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>183</v>
+        <v>15</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>185</v>
+        <v>42</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>188</v>
+        <v>93</v>
       </c>
       <c r="I34" s="0" t="s">
         <v>3</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1970,28 +1761,28 @@
         <v>2011</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>189</v>
+        <v>111</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>185</v>
+        <v>42</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>191</v>
+        <v>28</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>192</v>
+        <v>154</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>193</v>
+        <v>155</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>10</v>
@@ -2002,25 +1793,25 @@
         <v>2012</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>194</v>
+        <v>156</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>195</v>
+        <v>157</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>196</v>
+        <v>158</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>197</v>
+        <v>45</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>199</v>
+        <v>53</v>
       </c>
       <c r="I36" s="0" t="s">
         <v>17</v>
@@ -2034,31 +1825,31 @@
         <v>2013</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>202</v>
+        <v>139</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>203</v>
+        <v>87</v>
       </c>
       <c r="I37" s="0" t="s">
         <v>17</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2066,31 +1857,31 @@
         <v>2014</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>17</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>205</v>
+        <v>57</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>206</v>
+        <v>87</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2098,16 +1889,16 @@
         <v>2015</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>207</v>
+        <v>163</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>210</v>
+        <v>45</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>6</v>
@@ -2116,18 +1907,18 @@
         <v>23</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>211</v>
+        <v>24</v>
       </c>
       <c r="I39" s="0" t="s">
         <v>15</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2167,25 +1958,25 @@
         <v>2005</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>213</v>
+        <v>167</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>215</v>
+        <v>57</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>216</v>
+        <v>169</v>
       </c>
       <c r="I42" s="0" t="s">
         <v>23</v>
@@ -2199,31 +1990,31 @@
         <v>2006</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>219</v>
+        <v>172</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="F43" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>222</v>
+        <v>93</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2231,31 +2022,31 @@
         <v>2007</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>223</v>
+        <v>174</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>224</v>
+        <v>175</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>225</v>
+        <v>176</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>226</v>
+        <v>91</v>
       </c>
       <c r="F44" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>227</v>
+        <v>16</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>228</v>
+        <v>177</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>229</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2263,28 +2054,28 @@
         <v>2008</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>230</v>
+        <v>179</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>231</v>
+        <v>180</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>232</v>
+        <v>28</v>
       </c>
       <c r="F45" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>233</v>
+        <v>181</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>234</v>
+        <v>134</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>235</v>
+        <v>85</v>
       </c>
       <c r="J45" s="0" t="s">
         <v>18</v>
@@ -2295,28 +2086,28 @@
         <v>2009</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>237</v>
+        <v>183</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>238</v>
+        <v>184</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>239</v>
+        <v>76</v>
       </c>
       <c r="F46" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>240</v>
+        <v>93</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>241</v>
+        <v>185</v>
       </c>
       <c r="J46" s="0" t="s">
         <v>18</v>
@@ -2327,28 +2118,28 @@
         <v>2010</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>243</v>
+        <v>187</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>244</v>
+        <v>45</v>
       </c>
       <c r="F47" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>246</v>
+        <v>134</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>247</v>
+        <v>189</v>
       </c>
       <c r="J47" s="0" t="s">
         <v>18</v>
@@ -2359,28 +2150,28 @@
         <v>2011</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>248</v>
+        <v>12</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>250</v>
+        <v>156</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>6</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="J48" s="0" t="s">
         <v>18</v>
@@ -2391,28 +2182,28 @@
         <v>2012</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>254</v>
+        <v>193</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>255</v>
+        <v>194</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>257</v>
+        <v>48</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J49" s="0" t="s">
         <v>13</v>
@@ -2423,31 +2214,31 @@
         <v>2013</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>258</v>
+        <v>195</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>259</v>
+        <v>196</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>260</v>
+        <v>197</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>261</v>
+        <v>45</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>221</v>
+        <v>173</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>262</v>
+        <v>87</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>264</v>
+        <v>199</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2455,28 +2246,28 @@
         <v>2014</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>265</v>
+        <v>200</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>266</v>
+        <v>201</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>267</v>
+        <v>202</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>268</v>
+        <v>63</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>269</v>
+        <v>203</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>270</v>
+        <v>204</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J51" s="0" t="s">
         <v>13</v>
@@ -2487,28 +2278,28 @@
         <v>2015</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>271</v>
+        <v>56</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>263</v>
+        <v>198</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>255</v>
+        <v>194</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>272</v>
+        <v>28</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>273</v>
+        <v>205</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>274</v>
+        <v>87</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>275</v>
+        <v>206</v>
       </c>
       <c r="J52" s="0" t="s">
         <v>18</v>
